--- a/Mifos Automation Excels/Client/1782-MS-EI-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-2-EARLY-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/1782-MS-EI-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-2-EARLY-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -221,6 +226,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -268,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,9 +309,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,6 +361,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -667,10 +709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -687,12 +729,13 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
@@ -732,17 +775,18 @@
       <c r="M1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="9">
@@ -769,8 +813,9 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -806,17 +851,18 @@
       <c r="M3" s="3">
         <v>888.49</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
+      <c r="N3" s="3"/>
       <c r="O3" s="3">
         <v>0</v>
       </c>
       <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
         <v>45.13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -852,17 +898,18 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
+      <c r="N4" s="3"/>
       <c r="O4" s="3">
         <v>0</v>
       </c>
       <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>888.49</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -898,17 +945,18 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
+      <c r="N5" s="3"/>
       <c r="O5" s="3">
         <v>0</v>
       </c>
       <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>888.49</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -944,17 +992,18 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
+      <c r="N6" s="3"/>
       <c r="O6" s="3">
         <v>0</v>
       </c>
       <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>888.49</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -990,17 +1039,18 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
+      <c r="N7" s="3"/>
       <c r="O7" s="3">
         <v>0</v>
       </c>
       <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>888.49</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1036,13 +1086,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
+      <c r="N8" s="3"/>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>687.2</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/1782-MS-EI-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-2-EARLY-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/1782-MS-EI-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-2-EARLY-Makerepayment1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>makerepayment</t>
   </si>
@@ -67,9 +62,6 @@
   </si>
   <si>
     <t>Paid Date</t>
-  </si>
-  <si>
-    <t>Heading</t>
   </si>
   <si>
     <t>Principal Due</t>
@@ -123,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -210,11 +202,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -276,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,26 +301,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,23 +336,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,7 +551,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -712,7 +670,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -727,62 +685,58 @@
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="11" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -843,21 +797,19 @@
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <v>933.62</v>
+        <v>888.49</v>
       </c>
       <c r="L3" s="3">
         <v>888.49</v>
       </c>
-      <c r="M3" s="3">
-        <v>888.49</v>
-      </c>
-      <c r="N3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
+        <v>45.13</v>
+      </c>
       <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
+      <c r="P3" s="3"/>
       <c r="Q3" s="3">
         <v>45.13</v>
       </c>
@@ -895,16 +847,14 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
       <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
+      <c r="P4" s="3"/>
       <c r="Q4" s="3">
         <v>888.49</v>
       </c>
@@ -942,16 +892,14 @@
       <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3">
         <v>888.49</v>
       </c>
@@ -989,16 +937,14 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3">
         <v>888.49</v>
       </c>
@@ -1036,16 +982,14 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
       <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3">
         <v>888.49</v>
       </c>
@@ -1083,16 +1027,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3">
         <v>687.2</v>
       </c>
@@ -1120,35 +1062,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1156,7 +1098,7 @@
         <v>220</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="9">
         <v>42019</v>
@@ -1190,7 +1132,7 @@
         <v>218</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="9">
         <v>42005</v>
